--- a/bustjobs/jobs.xlsx
+++ b/bustjobs/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEREN\Documents\GitHub\project-asset\bustjobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE295D-8992-411E-B158-4E5FBF8CA4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B30ABF-CF62-4F56-9F75-4EECF452146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9876" yWindow="384" windowWidth="13164" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="242">
   <si>
-    <t>Career</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
     <t>Movie Star</t>
   </si>
   <si>
@@ -753,6 +738,21 @@
   </si>
   <si>
     <t>You Hit the Jackpot! Well, at least that's the hot game show you get to host! Flashy clothes, fancy cars, and expensive prizes - the contestants get it and you don't! Channel that anger into creativity...ONE DAY it will all be yours!</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>salary</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,33 +1091,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
@@ -1125,16 +1125,16 @@
     </row>
     <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E3" s="2">
         <v>150</v>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E4" s="2">
         <v>200</v>
@@ -1159,16 +1159,16 @@
     </row>
     <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2">
         <v>275</v>
@@ -1176,16 +1176,16 @@
     </row>
     <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E6" s="2">
         <v>375</v>
@@ -1193,16 +1193,16 @@
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E7" s="2">
         <v>500</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2">
         <v>650</v>
@@ -1227,16 +1227,16 @@
     </row>
     <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2">
         <v>900</v>
@@ -1244,16 +1244,16 @@
     </row>
     <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2">
         <v>1100</v>
@@ -1261,16 +1261,16 @@
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>1400</v>
@@ -1278,16 +1278,16 @@
     </row>
     <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
         <v>155</v>
@@ -1295,16 +1295,16 @@
     </row>
     <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
         <v>230</v>
@@ -1312,16 +1312,16 @@
     </row>
     <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
         <v>320</v>
@@ -1329,16 +1329,16 @@
     </row>
     <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2">
         <v>375</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="16" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2">
         <v>450</v>
@@ -1363,16 +1363,16 @@
     </row>
     <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2">
         <v>540</v>
@@ -1380,16 +1380,16 @@
     </row>
     <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2">
         <v>640</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="19" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2">
         <v>740</v>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="20" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2">
         <v>870</v>
@@ -1431,16 +1431,16 @@
     </row>
     <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2">
         <v>1000</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2">
         <v>140</v>
@@ -1465,16 +1465,16 @@
     </row>
     <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2">
         <v>200</v>
@@ -1482,16 +1482,16 @@
     </row>
     <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2">
         <v>275</v>
@@ -1499,16 +1499,16 @@
     </row>
     <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2">
         <v>350</v>
@@ -1516,16 +1516,16 @@
     </row>
     <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B26" s="2">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2">
         <v>425</v>
@@ -1533,16 +1533,16 @@
     </row>
     <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2">
         <v>530</v>
@@ -1550,16 +1550,16 @@
     </row>
     <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2">
         <v>640</v>
@@ -1567,16 +1567,16 @@
     </row>
     <row r="29" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2">
         <v>760</v>
@@ -1584,16 +1584,16 @@
     </row>
     <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2">
         <v>900</v>
@@ -1601,16 +1601,16 @@
     </row>
     <row r="31" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2">
         <v>1100</v>
@@ -1618,16 +1618,16 @@
     </row>
     <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2">
         <v>200</v>
@@ -1635,16 +1635,16 @@
     </row>
     <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2">
         <v>235</v>
@@ -1652,16 +1652,16 @@
     </row>
     <row r="34" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2">
         <v>275</v>
@@ -1669,16 +1669,16 @@
     </row>
     <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2">
         <v>315</v>
@@ -1686,16 +1686,16 @@
     </row>
     <row r="36" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2">
         <v>400</v>
@@ -1703,16 +1703,16 @@
     </row>
     <row r="37" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2">
         <v>550</v>
@@ -1720,16 +1720,16 @@
     </row>
     <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2">
         <v>650</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B39" s="2">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2">
         <v>900</v>
@@ -1754,16 +1754,16 @@
     </row>
     <row r="40" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B40" s="2">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2">
         <v>1100</v>
@@ -1771,16 +1771,16 @@
     </row>
     <row r="41" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B41" s="2">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2">
         <v>1200</v>
@@ -1788,16 +1788,16 @@
     </row>
     <row r="42" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2">
         <v>250</v>
@@ -1805,16 +1805,16 @@
     </row>
     <row r="43" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2">
         <v>325</v>
@@ -1822,16 +1822,16 @@
     </row>
     <row r="44" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B44" s="2">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2">
         <v>400</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="45" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B45" s="2">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2">
         <v>450</v>
@@ -1856,16 +1856,16 @@
     </row>
     <row r="46" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B46" s="2">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2">
         <v>500</v>
@@ -1873,16 +1873,16 @@
     </row>
     <row r="47" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B47" s="2">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2">
         <v>550</v>
@@ -1890,16 +1890,16 @@
     </row>
     <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2">
         <v>580</v>
@@ -1907,16 +1907,16 @@
     </row>
     <row r="49" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B49" s="2">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2">
         <v>600</v>
@@ -1924,16 +1924,16 @@
     </row>
     <row r="50" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B50" s="2">
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2">
         <v>600</v>
@@ -1941,16 +1941,16 @@
     </row>
     <row r="51" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2">
         <v>1000</v>
@@ -1958,16 +1958,16 @@
     </row>
     <row r="52" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2">
         <v>110</v>
@@ -1975,16 +1975,16 @@
     </row>
     <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B53" s="2">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2">
         <v>120</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="54" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" s="2">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2">
         <v>180</v>
@@ -2009,16 +2009,16 @@
     </row>
     <row r="55" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B55" s="2">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2">
         <v>200</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="56" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B56" s="2">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2">
         <v>220</v>
@@ -2043,16 +2043,16 @@
     </row>
     <row r="57" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B57" s="2">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2">
         <v>300</v>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="58" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2">
         <v>350</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="59" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B59" s="2">
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2">
         <v>450</v>
@@ -2094,16 +2094,16 @@
     </row>
     <row r="60" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2">
         <v>550</v>
@@ -2111,16 +2111,16 @@
     </row>
     <row r="61" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B61" s="2">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2">
         <v>1000</v>
@@ -2128,16 +2128,16 @@
     </row>
     <row r="62" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2">
         <v>130</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="63" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2">
         <v>170</v>
@@ -2162,16 +2162,16 @@
     </row>
     <row r="64" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B64" s="2">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2">
         <v>230</v>
@@ -2179,16 +2179,16 @@
     </row>
     <row r="65" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B65" s="2">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2">
         <v>300</v>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="66" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2">
         <v>385</v>
@@ -2213,16 +2213,16 @@
     </row>
     <row r="67" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B67" s="2">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E67" s="2">
         <v>510</v>
@@ -2230,16 +2230,16 @@
     </row>
     <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B68" s="2">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2">
         <v>680</v>
@@ -2247,16 +2247,16 @@
     </row>
     <row r="69" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B69" s="2">
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E69" s="2">
         <v>680</v>
@@ -2264,16 +2264,16 @@
     </row>
     <row r="70" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B70" s="2">
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E70" s="2">
         <v>1000</v>
@@ -2281,16 +2281,16 @@
     </row>
     <row r="71" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B71" s="2">
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E71" s="2">
         <v>1000</v>
@@ -2298,16 +2298,16 @@
     </row>
     <row r="72" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E72" s="2">
         <v>100</v>
@@ -2315,16 +2315,16 @@
     </row>
     <row r="73" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E73" s="2">
         <v>130</v>
@@ -2332,16 +2332,16 @@
     </row>
     <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E74" s="2">
         <v>190</v>
@@ -2349,16 +2349,16 @@
     </row>
     <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B75" s="2">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E75" s="2">
         <v>250</v>
@@ -2366,16 +2366,16 @@
     </row>
     <row r="76" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E76" s="2">
         <v>325</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="77" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2">
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E77" s="2">
         <v>400</v>
@@ -2400,16 +2400,16 @@
     </row>
     <row r="78" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E78" s="2">
         <v>550</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="79" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E79" s="2">
         <v>700</v>
@@ -2434,16 +2434,16 @@
     </row>
     <row r="80" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2">
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E80" s="2">
         <v>1100</v>
@@ -2451,16 +2451,16 @@
     </row>
     <row r="81" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2">
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E81" s="2">
         <v>1400</v>
@@ -2468,16 +2468,16 @@
     </row>
     <row r="82" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E82" s="2">
         <v>120</v>
@@ -2485,16 +2485,16 @@
     </row>
     <row r="83" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2">
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E83" s="2">
         <v>150</v>
@@ -2502,16 +2502,16 @@
     </row>
     <row r="84" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E84" s="2">
         <v>200</v>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="85" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2">
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E85" s="2">
         <v>240</v>
@@ -2536,16 +2536,16 @@
     </row>
     <row r="86" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E86" s="2">
         <v>400</v>
@@ -2553,16 +2553,16 @@
     </row>
     <row r="87" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2">
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E87" s="2">
         <v>610</v>
@@ -2570,16 +2570,16 @@
     </row>
     <row r="88" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E88" s="2">
         <v>800</v>
@@ -2587,16 +2587,16 @@
     </row>
     <row r="89" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E89" s="2">
         <v>1100</v>
@@ -2604,16 +2604,16 @@
     </row>
     <row r="90" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E90" s="2">
         <v>1300</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="91" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2">
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E91" s="2">
         <v>1550</v>
@@ -2638,16 +2638,16 @@
     </row>
     <row r="92" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E92" s="2">
         <v>100</v>
@@ -2655,16 +2655,16 @@
     </row>
     <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B93" s="2">
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E93" s="2">
         <v>120</v>
@@ -2672,16 +2672,16 @@
     </row>
     <row r="94" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B94" s="2">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E94" s="2">
         <v>190</v>
@@ -2689,16 +2689,16 @@
     </row>
     <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B95" s="2">
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E95" s="2">
         <v>250</v>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="96" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B96" s="2">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E96" s="2">
         <v>325</v>
@@ -2723,16 +2723,16 @@
     </row>
     <row r="97" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B97" s="2">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E97" s="2">
         <v>400</v>
@@ -2740,16 +2740,16 @@
     </row>
     <row r="98" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B98" s="2">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E98" s="2">
         <v>550</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="99" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B99" s="2">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E99" s="2">
         <v>700</v>
@@ -2774,16 +2774,16 @@
     </row>
     <row r="100" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B100" s="2">
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E100" s="2">
         <v>1100</v>
@@ -2791,16 +2791,16 @@
     </row>
     <row r="101" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B101" s="2">
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E101" s="2">
         <v>1400</v>
@@ -2808,16 +2808,16 @@
     </row>
     <row r="102" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E102" s="2">
         <v>120</v>
@@ -2825,16 +2825,16 @@
     </row>
     <row r="103" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B103" s="2">
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E103" s="2">
         <v>180</v>
@@ -2842,16 +2842,16 @@
     </row>
     <row r="104" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B104" s="2">
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E104" s="2">
         <v>250</v>
@@ -2859,16 +2859,16 @@
     </row>
     <row r="105" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B105" s="2">
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E105" s="2">
         <v>320</v>
@@ -2876,16 +2876,16 @@
     </row>
     <row r="106" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B106" s="2">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E106" s="2">
         <v>400</v>
@@ -2893,16 +2893,16 @@
     </row>
     <row r="107" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B107" s="2">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E107" s="2">
         <v>520</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="108" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B108" s="2">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E108" s="2">
         <v>660</v>
@@ -2927,16 +2927,16 @@
     </row>
     <row r="109" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B109" s="2">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E109" s="2">
         <v>800</v>
@@ -2944,16 +2944,16 @@
     </row>
     <row r="110" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B110" s="2">
         <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E110" s="2">
         <v>950</v>
@@ -2961,16 +2961,16 @@
     </row>
     <row r="111" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B111" s="2">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E111" s="2">
         <v>1200</v>
@@ -2978,16 +2978,16 @@
     </row>
     <row r="112" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E112" s="2">
         <v>100</v>
@@ -2995,16 +2995,16 @@
     </row>
     <row r="113" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B113" s="2">
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E113" s="2">
         <v>120</v>
@@ -3012,16 +3012,16 @@
     </row>
     <row r="114" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B114" s="2">
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E114" s="2">
         <v>190</v>
